--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19736" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19736" uniqueCount="1615">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.5</t>
+    <t>0.9.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:23:51-03:00</t>
+    <t>2024-01-03T11:13:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -930,7 +930,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
     <t>MedicationDispense.performer:Dispensador.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
@@ -3469,7 +3469,7 @@
     <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/RecetaPrescripcionCl</t>
   </si>
   <si>
-    <t>PrescripcionRecetaCL2</t>
+    <t>PrescripcionRecetaCL</t>
   </si>
   <si>
     <t>CL Prescripción</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">Determinación de un medicamento en Producto Comercial. Para eso esta extensión define una Referencia solo a un recurso de medication. </t>
   </si>
   <si>
-    <t>MedicationRequest.extension:PComercial</t>
-  </si>
-  <si>
-    <t>PComercial</t>
+    <t>MedicationRequest.extension:ProdComercial</t>
+  </si>
+  <si>
+    <t>ProdComercial</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/ProdComercial}
@@ -4866,9 +4866,6 @@
     <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
   </si>
   <si>
-    <t>ProdComercial</t>
-  </si>
-  <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/ProdComercial</t>
   </si>
   <si>
@@ -4881,7 +4878,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/RecetaPrescripcionCl#MedicationRequest</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -5772,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>1583</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="87">
@@ -5780,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="88">
@@ -5796,7 +5793,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>1583</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="90">
@@ -5894,7 +5891,7 @@
         <v>31</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="103">
@@ -5902,7 +5899,7 @@
         <v>33</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="104">
@@ -5923,10 +5920,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
+        <v>1586</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>1587</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>1588</v>
       </c>
     </row>
     <row r="107">
@@ -5942,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="109">
@@ -5950,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="110">
@@ -5966,7 +5963,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="112">
@@ -5974,7 +5971,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="113">
@@ -6028,7 +6025,7 @@
         <v>23</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="120">
@@ -6036,7 +6033,7 @@
         <v>25</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="121">
@@ -6066,7 +6063,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="125">
@@ -6074,7 +6071,7 @@
         <v>33</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="126">
@@ -67230,13 +67227,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1583</v>
+        <v>1140</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -67316,7 +67313,7 @@
         <v>39</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>40</v>
@@ -67333,13 +67330,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1583</v>
+        <v>1140</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -67436,13 +67433,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1583</v>
+        <v>1140</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -67468,10 +67465,10 @@
         <v>91</v>
       </c>
       <c r="M586" t="s" s="2">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N586" t="s" s="2">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="O586" s="2"/>
       <c r="P586" s="2"/>
@@ -67539,13 +67536,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1583</v>
+        <v>1140</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -67571,13 +67568,13 @@
         <v>61</v>
       </c>
       <c r="M587" t="s" s="2">
+        <v>1592</v>
+      </c>
+      <c r="N587" t="s" s="2">
         <v>1593</v>
       </c>
-      <c r="N587" t="s" s="2">
+      <c r="O587" t="s" s="2">
         <v>1594</v>
-      </c>
-      <c r="O587" t="s" s="2">
-        <v>1595</v>
       </c>
       <c r="P587" s="2"/>
       <c r="Q587" t="s" s="2">
@@ -67585,7 +67582,7 @@
       </c>
       <c r="R587" s="2"/>
       <c r="S587" t="s" s="2">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="T587" t="s" s="2">
         <v>39</v>
@@ -67627,7 +67624,7 @@
         <v>39</v>
       </c>
       <c r="AG587" t="s" s="2">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="AH587" t="s" s="2">
         <v>47</v>
@@ -67644,13 +67641,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1583</v>
+        <v>1140</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -67673,13 +67670,13 @@
         <v>39</v>
       </c>
       <c r="L588" t="s" s="2">
+        <v>1596</v>
+      </c>
+      <c r="M588" t="s" s="2">
         <v>1597</v>
       </c>
-      <c r="M588" t="s" s="2">
+      <c r="N588" t="s" s="2">
         <v>1598</v>
-      </c>
-      <c r="N588" t="s" s="2">
-        <v>1599</v>
       </c>
       <c r="O588" s="2"/>
       <c r="P588" s="2"/>
@@ -67730,7 +67727,7 @@
         <v>39</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>40</v>
@@ -67747,13 +67744,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -67779,13 +67776,13 @@
         <v>42</v>
       </c>
       <c r="M589" t="s" s="2">
+        <v>1606</v>
+      </c>
+      <c r="N589" t="s" s="2">
         <v>1607</v>
       </c>
-      <c r="N589" t="s" s="2">
+      <c r="O589" t="s" s="2">
         <v>1608</v>
-      </c>
-      <c r="O589" t="s" s="2">
-        <v>1609</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -67835,7 +67832,7 @@
         <v>39</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>40</v>
@@ -67847,18 +67844,18 @@
         <v>723</v>
       </c>
       <c r="AK589" t="s" s="2">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -67955,13 +67952,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -68060,7 +68057,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>776</v>
@@ -68089,13 +68086,13 @@
         <v>39</v>
       </c>
       <c r="L592" t="s" s="2">
+        <v>1612</v>
+      </c>
+      <c r="M592" t="s" s="2">
         <v>1613</v>
       </c>
-      <c r="M592" t="s" s="2">
-        <v>1614</v>
-      </c>
       <c r="N592" t="s" s="2">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="O592" t="s" s="2">
         <v>722</v>
@@ -68165,7 +68162,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>796</v>
@@ -68194,13 +68191,13 @@
         <v>39</v>
       </c>
       <c r="L593" t="s" s="2">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="N593" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="O593" t="s" s="2">
         <v>722</v>
